--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\UC\5º_semestre\NLP\projeto\NLProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F829CE96-27CA-4882-A114-0212E7D40480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FD28DD-1A6E-4BE0-96E3-F05D1F4673DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$D$51</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>LONDON, England (Reuters) -- Harry Potter star Daniel Radcliffe gains access to a reported £20 million ($41.1 million) fortune as he turns 18 on Monday, but he insists the money won't cast a spell on him. Daniel Radcliffe as Harry Potter in "Harry Potter and the Order of the Phoenix" To the disappointment of gossip columnists around the world, the young actor says he has no plans to fritter his cash away on fast cars, drink and celebrity parties. "I don't plan to be one of those people who, as soon as they turn 18, suddenly buy themselves a massive sports car collection or something similar," he told an Australian interviewer earlier this month. "I don't think I'll be particularly extravagant. "The things I like buying are things that cost about 10 pounds -- books and CDs and DVDs." At 18, Radcliffe will be able to gamble in a casino, buy a drink in a pub or see the horror film "Hostel: Part II," currently six places below his number one movie on the UK box office chart. Details of how he'll mark his landmark birthday are under wraps. His agent and publicist had no comment on his plans. "I'll definitely have some sort of party," he said in an interview. "Hopefully none of you will be reading about it." Radcliffe's earnings from the first five Potter films have been held in a trust fund which he has not been able to touch. Despite his growing fame and riches, the actor says he is keeping his feet firmly on the ground. "People are always looking to say 'kid star goes off the rails,'" he told reporters last month. "But I try very hard not to go that way because it would be too easy for them." His latest outing as the boy wizard in "Harry Potter and the Order of the Phoenix" is breaking records on both sides of the Atlantic and he will reprise the role in the last two films. Watch I-Reporter give her review of Potter's latest » . There is life beyond Potter, however. The Londoner has filmed a TV movie called "My Boy Jack," about author Rudyard Kipling and his son, due for release later this year. He will also appear in "December Boys," an Australian film about four boys who escape an orphanage. Earlier this year, he made his stage debut playing a tortured teenager in Peter Shaffer's "Equus." Meanwhile, he is braced for even closer media scrutiny now that he's legally an adult: "I just think I'm going to be more sort of fair game," he told Reuters. E-mail to a friend . Copyright 2007 Reuters. All rights reserved.This material may not be published, broadcast, rewritten, or redistributed.</t>
   </si>
@@ -484,13 +487,16 @@
   </si>
   <si>
     <t>news</t>
+  </si>
+  <si>
+    <t>count_words</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +509,11 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -525,10 +536,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,20 +824,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="111.85546875" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>151</v>
       </c>
@@ -833,558 +845,766 @@
       <c r="C1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="255">
       <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2">
+        <f>IF(B2="",0,LEN(B2)-LEN(SUBSTITUTE(B2," ",""))+1)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="270">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2">
+        <f>IF(B3="",0,LEN(B3)-LEN(SUBSTITUTE(B3," ",""))+1)</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="330">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2">
+        <f>IF(B4="",0,LEN(B4)-LEN(SUBSTITUTE(B4," ",""))+1)</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="345">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2">
+        <f>IF(B5="",0,LEN(B5)-LEN(SUBSTITUTE(B5," ",""))+1)</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="330">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="2">
+        <f>IF(B6="",0,LEN(B6)-LEN(SUBSTITUTE(B6," ",""))+1)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="360">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2">
+        <f>IF(B7="",0,LEN(B7)-LEN(SUBSTITUTE(B7," ",""))+1)</f>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="375">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="2">
+        <f>IF(B8="",0,LEN(B8)-LEN(SUBSTITUTE(B8," ",""))+1)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="405">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2">
+        <f>IF(B9="",0,LEN(B9)-LEN(SUBSTITUTE(B9," ",""))+1)</f>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="409.5">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="2">
+        <f>IF(B10="",0,LEN(B10)-LEN(SUBSTITUTE(B10," ",""))+1)</f>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="409.5">
+      <c r="A11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="2">
+        <f>IF(B11="",0,LEN(B11)-LEN(SUBSTITUTE(B11," ",""))+1)</f>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="409.5">
+      <c r="A12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="2">
+        <f>IF(B12="",0,LEN(B12)-LEN(SUBSTITUTE(B12," ",""))+1)</f>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="409.5">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2">
+        <f>IF(B13="",0,LEN(B13)-LEN(SUBSTITUTE(B13," ",""))+1)</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="409.5">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2">
+        <f>IF(B14="",0,LEN(B14)-LEN(SUBSTITUTE(B14," ",""))+1)</f>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="409.5">
+      <c r="A15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="2">
+        <f>IF(B15="",0,LEN(B15)-LEN(SUBSTITUTE(B15," ",""))+1)</f>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="409.5">
+      <c r="A16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="2">
+        <f>IF(B16="",0,LEN(B16)-LEN(SUBSTITUTE(B16," ",""))+1)</f>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="409.5">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <f>IF(B17="",0,LEN(B17)-LEN(SUBSTITUTE(B17," ",""))+1)</f>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="409.5">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2">
+        <f>IF(B18="",0,LEN(B18)-LEN(SUBSTITUTE(B18," ",""))+1)</f>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="409.5">
+      <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D19" s="2">
+        <f>IF(B19="",0,LEN(B19)-LEN(SUBSTITUTE(B19," ",""))+1)</f>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="409.5">
+      <c r="A20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="2">
+        <f>IF(B20="",0,LEN(B20)-LEN(SUBSTITUTE(B20," ",""))+1)</f>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="409.5">
+      <c r="A21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="2">
+        <f>IF(B21="",0,LEN(B21)-LEN(SUBSTITUTE(B21," ",""))+1)</f>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="409.5">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2">
+        <f>IF(B22="",0,LEN(B22)-LEN(SUBSTITUTE(B22," ",""))+1)</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="409.5">
+      <c r="A23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="2">
+        <f>IF(B23="",0,LEN(B23)-LEN(SUBSTITUTE(B23," ",""))+1)</f>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="409.5">
+      <c r="A24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="2">
+        <f>IF(B24="",0,LEN(B24)-LEN(SUBSTITUTE(B24," ",""))+1)</f>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="409.5">
+      <c r="A25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="2">
+        <f>IF(B25="",0,LEN(B25)-LEN(SUBSTITUTE(B25," ",""))+1)</f>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="409.5">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="2">
+        <f>IF(B26="",0,LEN(B26)-LEN(SUBSTITUTE(B26," ",""))+1)</f>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="409.5">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2">
+        <f>IF(B27="",0,LEN(B27)-LEN(SUBSTITUTE(B27," ",""))+1)</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="409.5">
+      <c r="A28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="2">
+        <f>IF(B28="",0,LEN(B28)-LEN(SUBSTITUTE(B28," ",""))+1)</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="409.5">
+      <c r="A29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="2">
+        <f>IF(B29="",0,LEN(B29)-LEN(SUBSTITUTE(B29," ",""))+1)</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="409.5">
+      <c r="A30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="2">
+        <f>IF(B30="",0,LEN(B30)-LEN(SUBSTITUTE(B30," ",""))+1)</f>
+        <v>647</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="409.5">
+      <c r="A31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="2">
+        <f>IF(B31="",0,LEN(B31)-LEN(SUBSTITUTE(B31," ",""))+1)</f>
+        <v>652</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="409.5">
+      <c r="A32" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="2">
+        <f>IF(B32="",0,LEN(B32)-LEN(SUBSTITUTE(B32," ",""))+1)</f>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="409.5">
+      <c r="A33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="2">
+        <f>IF(B33="",0,LEN(B33)-LEN(SUBSTITUTE(B33," ",""))+1)</f>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="409.5">
+      <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D34" s="2">
+        <f>IF(B34="",0,LEN(B34)-LEN(SUBSTITUTE(B34," ",""))+1)</f>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="409.5">
+      <c r="A35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="2">
+        <f>IF(B35="",0,LEN(B35)-LEN(SUBSTITUTE(B35," ",""))+1)</f>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="409.5">
+      <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="D36" s="2">
+        <f>IF(B36="",0,LEN(B36)-LEN(SUBSTITUTE(B36," ",""))+1)</f>
+        <v>743</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="409.5">
+      <c r="A37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="2">
+        <f>IF(B37="",0,LEN(B37)-LEN(SUBSTITUTE(B37," ",""))+1)</f>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="409.5">
+      <c r="A38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="2">
+        <f>IF(B38="",0,LEN(B38)-LEN(SUBSTITUTE(B38," ",""))+1)</f>
+        <v>753</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="409.5">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="2">
+        <f>IF(B39="",0,LEN(B39)-LEN(SUBSTITUTE(B39," ",""))+1)</f>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="409.5">
+      <c r="A40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="2">
+        <f>IF(B40="",0,LEN(B40)-LEN(SUBSTITUTE(B40," ",""))+1)</f>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="409.5">
+      <c r="A41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="2">
+        <f>IF(B41="",0,LEN(B41)-LEN(SUBSTITUTE(B41," ",""))+1)</f>
+        <v>797</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="409.5">
+      <c r="A42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="2">
+        <f>IF(B42="",0,LEN(B42)-LEN(SUBSTITUTE(B42," ",""))+1)</f>
+        <v>867</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="409.5">
+      <c r="A43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="2">
+        <f>IF(B43="",0,LEN(B43)-LEN(SUBSTITUTE(B43," ",""))+1)</f>
+        <v>898</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="409.5">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="2">
+        <f>IF(B44="",0,LEN(B44)-LEN(SUBSTITUTE(B44," ",""))+1)</f>
+        <v>898</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="409.5">
+      <c r="A45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="2">
+        <f>IF(B45="",0,LEN(B45)-LEN(SUBSTITUTE(B45," ",""))+1)</f>
+        <v>918</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="409.5">
+      <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="360" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="285" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="255" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="255" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="270" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="D46" s="2">
+        <f>IF(B46="",0,LEN(B46)-LEN(SUBSTITUTE(B46," ",""))+1)</f>
+        <v>973</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="409.5">
+      <c r="A47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="2">
+        <f>IF(B47="",0,LEN(B47)-LEN(SUBSTITUTE(B47," ",""))+1)</f>
+        <v>992</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="409.5">
+      <c r="A48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="2">
+        <f>IF(B48="",0,LEN(B48)-LEN(SUBSTITUTE(B48," ",""))+1)</f>
+        <v>995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="409.5">
+      <c r="A49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="2">
+        <f>IF(B49="",0,LEN(B49)-LEN(SUBSTITUTE(B49," ",""))+1)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="409.5">
+      <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="360" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="D50" s="2">
+        <f>IF(B50="",0,LEN(B50)-LEN(SUBSTITUTE(B50," ",""))+1)</f>
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="409.5">
+      <c r="A51" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="360" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="360" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>148</v>
+      <c r="D51" s="2">
+        <f>IF(B51="",0,LEN(B51)-LEN(SUBSTITUTE(B51," ",""))+1)</f>
+        <v>1665</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D51" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">
+      <sortCondition ref="D1:D51"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\UC\5º_semestre\NLP\projeto\NLProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FD28DD-1A6E-4BE0-96E3-F05D1F4673DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD0AC04-8DF4-4F24-9FDB-1F15D02A6CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>LONDON, England (Reuters) -- Harry Potter star Daniel Radcliffe gains access to a reported £20 million ($41.1 million) fortune as he turns 18 on Monday, but he insists the money won't cast a spell on him. Daniel Radcliffe as Harry Potter in "Harry Potter and the Order of the Phoenix" To the disappointment of gossip columnists around the world, the young actor says he has no plans to fritter his cash away on fast cars, drink and celebrity parties. "I don't plan to be one of those people who, as soon as they turn 18, suddenly buy themselves a massive sports car collection or something similar," he told an Australian interviewer earlier this month. "I don't think I'll be particularly extravagant. "The things I like buying are things that cost about 10 pounds -- books and CDs and DVDs." At 18, Radcliffe will be able to gamble in a casino, buy a drink in a pub or see the horror film "Hostel: Part II," currently six places below his number one movie on the UK box office chart. Details of how he'll mark his landmark birthday are under wraps. His agent and publicist had no comment on his plans. "I'll definitely have some sort of party," he said in an interview. "Hopefully none of you will be reading about it." Radcliffe's earnings from the first five Potter films have been held in a trust fund which he has not been able to touch. Despite his growing fame and riches, the actor says he is keeping his feet firmly on the ground. "People are always looking to say 'kid star goes off the rails,'" he told reporters last month. "But I try very hard not to go that way because it would be too easy for them." His latest outing as the boy wizard in "Harry Potter and the Order of the Phoenix" is breaking records on both sides of the Atlantic and he will reprise the role in the last two films. Watch I-Reporter give her review of Potter's latest » . There is life beyond Potter, however. The Londoner has filmed a TV movie called "My Boy Jack," about author Rudyard Kipling and his son, due for release later this year. He will also appear in "December Boys," an Australian film about four boys who escape an orphanage. Earlier this year, he made his stage debut playing a tortured teenager in Peter Shaffer's "Equus." Meanwhile, he is braced for even closer media scrutiny now that he's legally an adult: "I just think I'm going to be more sort of fair game," he told Reuters. E-mail to a friend . Copyright 2007 Reuters. All rights reserved.This material may not be published, broadcast, rewritten, or redistributed.</t>
   </si>
@@ -490,13 +490,16 @@
   </si>
   <si>
     <t>count_words</t>
+  </si>
+  <si>
+    <t>count_sentences</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,6 +517,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -536,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -544,6 +555,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,19 +836,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="81.140625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B1" t="s">
@@ -848,8 +863,11 @@
       <c r="D1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="255">
+      <c r="E1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="255">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
@@ -860,11 +878,14 @@
         <v>70</v>
       </c>
       <c r="D2" s="2">
-        <f>IF(B2="",0,LEN(B2)-LEN(SUBSTITUTE(B2," ",""))+1)</f>
+        <f t="shared" ref="D2:D33" si="0">IF(B2="",0,LEN(B2)-LEN(SUBSTITUTE(B2," ",""))+1)</f>
         <v>183</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="270">
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="270">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -875,11 +896,14 @@
         <v>43</v>
       </c>
       <c r="D3" s="2">
-        <f>IF(B3="",0,LEN(B3)-LEN(SUBSTITUTE(B3," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>193</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="330">
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="330">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
@@ -890,11 +914,14 @@
         <v>64</v>
       </c>
       <c r="D4" s="2">
-        <f>IF(B4="",0,LEN(B4)-LEN(SUBSTITUTE(B4," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>227</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="345">
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="345">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -905,11 +932,14 @@
         <v>40</v>
       </c>
       <c r="D5" s="2">
-        <f>IF(B5="",0,LEN(B5)-LEN(SUBSTITUTE(B5," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>235</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="330">
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="330">
       <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
@@ -920,11 +950,14 @@
         <v>79</v>
       </c>
       <c r="D6" s="2">
-        <f>IF(B6="",0,LEN(B6)-LEN(SUBSTITUTE(B6," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="360">
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="360">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -935,11 +968,14 @@
         <v>49</v>
       </c>
       <c r="D7" s="2">
-        <f>IF(B7="",0,LEN(B7)-LEN(SUBSTITUTE(B7," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>251</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="375">
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="375">
       <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
@@ -950,11 +986,14 @@
         <v>58</v>
       </c>
       <c r="D8" s="2">
-        <f>IF(B8="",0,LEN(B8)-LEN(SUBSTITUTE(B8," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="405">
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="405">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -965,11 +1004,14 @@
         <v>37</v>
       </c>
       <c r="D9" s="2">
-        <f>IF(B9="",0,LEN(B9)-LEN(SUBSTITUTE(B9," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>298</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="409.5">
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="409.5">
       <c r="A10" s="1" t="s">
         <v>89</v>
       </c>
@@ -980,11 +1022,14 @@
         <v>88</v>
       </c>
       <c r="D10" s="2">
-        <f>IF(B10="",0,LEN(B10)-LEN(SUBSTITUTE(B10," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>307</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="409.5">
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="409.5">
       <c r="A11" s="1" t="s">
         <v>83</v>
       </c>
@@ -995,11 +1040,14 @@
         <v>82</v>
       </c>
       <c r="D11" s="2">
-        <f>IF(B11="",0,LEN(B11)-LEN(SUBSTITUTE(B11," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>326</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="409.5">
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="409.5">
       <c r="A12" s="1" t="s">
         <v>128</v>
       </c>
@@ -1010,11 +1058,14 @@
         <v>127</v>
       </c>
       <c r="D12" s="2">
-        <f>IF(B12="",0,LEN(B12)-LEN(SUBSTITUTE(B12," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>338</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="409.5">
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="409.5">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1025,11 +1076,14 @@
         <v>22</v>
       </c>
       <c r="D13" s="2">
-        <f>IF(B13="",0,LEN(B13)-LEN(SUBSTITUTE(B13," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>340</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="409.5">
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="409.5">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1040,11 +1094,14 @@
         <v>28</v>
       </c>
       <c r="D14" s="2">
-        <f>IF(B14="",0,LEN(B14)-LEN(SUBSTITUTE(B14," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>349</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="409.5">
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="409.5">
       <c r="A15" s="1" t="s">
         <v>146</v>
       </c>
@@ -1055,11 +1112,14 @@
         <v>145</v>
       </c>
       <c r="D15" s="2">
-        <f>IF(B15="",0,LEN(B15)-LEN(SUBSTITUTE(B15," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>378</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="409.5">
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="409.5">
       <c r="A16" s="1" t="s">
         <v>134</v>
       </c>
@@ -1070,11 +1130,14 @@
         <v>133</v>
       </c>
       <c r="D16" s="2">
-        <f>IF(B16="",0,LEN(B16)-LEN(SUBSTITUTE(B16," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>399</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="409.5">
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="409.5">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1085,11 +1148,14 @@
         <v>10</v>
       </c>
       <c r="D17" s="2">
-        <f>IF(B17="",0,LEN(B17)-LEN(SUBSTITUTE(B17," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>414</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="409.5">
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="409.5">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -1100,11 +1166,14 @@
         <v>52</v>
       </c>
       <c r="D18" s="2">
-        <f>IF(B18="",0,LEN(B18)-LEN(SUBSTITUTE(B18," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>452</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="409.5">
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="409.5">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1115,11 +1184,14 @@
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <f>IF(B19="",0,LEN(B19)-LEN(SUBSTITUTE(B19," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>455</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="409.5">
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="409.5">
       <c r="A20" s="1" t="s">
         <v>107</v>
       </c>
@@ -1130,11 +1202,14 @@
         <v>106</v>
       </c>
       <c r="D20" s="2">
-        <f>IF(B20="",0,LEN(B20)-LEN(SUBSTITUTE(B20," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>466</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="409.5">
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="409.5">
       <c r="A21" s="1" t="s">
         <v>104</v>
       </c>
@@ -1145,11 +1220,14 @@
         <v>103</v>
       </c>
       <c r="D21" s="2">
-        <f>IF(B21="",0,LEN(B21)-LEN(SUBSTITUTE(B21," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>522</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="409.5">
+      <c r="E21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="409.5">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1160,11 +1238,14 @@
         <v>25</v>
       </c>
       <c r="D22" s="2">
-        <f>IF(B22="",0,LEN(B22)-LEN(SUBSTITUTE(B22," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>525</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="409.5">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="409.5">
       <c r="A23" s="1" t="s">
         <v>119</v>
       </c>
@@ -1175,11 +1256,14 @@
         <v>118</v>
       </c>
       <c r="D23" s="2">
-        <f>IF(B23="",0,LEN(B23)-LEN(SUBSTITUTE(B23," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>533</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="409.5">
+      <c r="E23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="409.5">
       <c r="A24" s="1" t="s">
         <v>116</v>
       </c>
@@ -1190,11 +1274,14 @@
         <v>115</v>
       </c>
       <c r="D24" s="2">
-        <f>IF(B24="",0,LEN(B24)-LEN(SUBSTITUTE(B24," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>565</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="409.5">
+      <c r="E24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="409.5">
       <c r="A25" s="1" t="s">
         <v>95</v>
       </c>
@@ -1205,11 +1292,14 @@
         <v>94</v>
       </c>
       <c r="D25" s="2">
-        <f>IF(B25="",0,LEN(B25)-LEN(SUBSTITUTE(B25," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>589</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="409.5">
+      <c r="E25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="409.5">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -1220,11 +1310,14 @@
         <v>55</v>
       </c>
       <c r="D26" s="2">
-        <f>IF(B26="",0,LEN(B26)-LEN(SUBSTITUTE(B26," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>617</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="409.5">
+      <c r="E26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="409.5">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1235,11 +1328,14 @@
         <v>34</v>
       </c>
       <c r="D27" s="2">
-        <f>IF(B27="",0,LEN(B27)-LEN(SUBSTITUTE(B27," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>640</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="409.5">
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="409.5">
       <c r="A28" s="1" t="s">
         <v>143</v>
       </c>
@@ -1250,11 +1346,14 @@
         <v>142</v>
       </c>
       <c r="D28" s="2">
-        <f>IF(B28="",0,LEN(B28)-LEN(SUBSTITUTE(B28," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>640</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="409.5">
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="409.5">
       <c r="A29" s="1" t="s">
         <v>77</v>
       </c>
@@ -1265,11 +1364,14 @@
         <v>76</v>
       </c>
       <c r="D29" s="2">
-        <f>IF(B29="",0,LEN(B29)-LEN(SUBSTITUTE(B29," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>645</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="409.5">
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="409.5">
       <c r="A30" s="1" t="s">
         <v>140</v>
       </c>
@@ -1280,11 +1382,14 @@
         <v>139</v>
       </c>
       <c r="D30" s="2">
-        <f>IF(B30="",0,LEN(B30)-LEN(SUBSTITUTE(B30," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>647</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="409.5">
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="409.5">
       <c r="A31" s="1" t="s">
         <v>113</v>
       </c>
@@ -1295,11 +1400,14 @@
         <v>112</v>
       </c>
       <c r="D31" s="2">
-        <f>IF(B31="",0,LEN(B31)-LEN(SUBSTITUTE(B31," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>652</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="409.5">
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="409.5">
       <c r="A32" s="1" t="s">
         <v>110</v>
       </c>
@@ -1310,11 +1418,14 @@
         <v>109</v>
       </c>
       <c r="D32" s="2">
-        <f>IF(B32="",0,LEN(B32)-LEN(SUBSTITUTE(B32," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>656</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="409.5">
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="409.5">
       <c r="A33" s="1" t="s">
         <v>131</v>
       </c>
@@ -1325,11 +1436,14 @@
         <v>130</v>
       </c>
       <c r="D33" s="2">
-        <f>IF(B33="",0,LEN(B33)-LEN(SUBSTITUTE(B33," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>667</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="409.5">
+      <c r="E33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="409.5">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1340,11 +1454,14 @@
         <v>4</v>
       </c>
       <c r="D34" s="2">
-        <f>IF(B34="",0,LEN(B34)-LEN(SUBSTITUTE(B34," ",""))+1)</f>
+        <f t="shared" ref="D34:D51" si="1">IF(B34="",0,LEN(B34)-LEN(SUBSTITUTE(B34," ",""))+1)</f>
         <v>698</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="409.5">
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="409.5">
       <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
@@ -1355,11 +1472,14 @@
         <v>16</v>
       </c>
       <c r="D35" s="2">
-        <f>IF(B35="",0,LEN(B35)-LEN(SUBSTITUTE(B35," ",""))+1)</f>
+        <f t="shared" si="1"/>
         <v>706</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="409.5">
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="409.5">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -1370,11 +1490,14 @@
         <v>7</v>
       </c>
       <c r="D36" s="2">
-        <f>IF(B36="",0,LEN(B36)-LEN(SUBSTITUTE(B36," ",""))+1)</f>
+        <f t="shared" si="1"/>
         <v>743</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="409.5">
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="409.5">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
@@ -1385,11 +1508,14 @@
         <v>67</v>
       </c>
       <c r="D37" s="2">
-        <f>IF(B37="",0,LEN(B37)-LEN(SUBSTITUTE(B37," ",""))+1)</f>
+        <f t="shared" si="1"/>
         <v>749</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="409.5">
+      <c r="E37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="409.5">
       <c r="A38" s="1" t="s">
         <v>149</v>
       </c>
@@ -1400,11 +1526,14 @@
         <v>148</v>
       </c>
       <c r="D38" s="2">
-        <f>IF(B38="",0,LEN(B38)-LEN(SUBSTITUTE(B38," ",""))+1)</f>
+        <f t="shared" si="1"/>
         <v>753</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="409.5">
+      <c r="E38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="409.5">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
@@ -1415,11 +1544,14 @@
         <v>46</v>
       </c>
       <c r="D39" s="2">
-        <f>IF(B39="",0,LEN(B39)-LEN(SUBSTITUTE(B39," ",""))+1)</f>
+        <f t="shared" si="1"/>
         <v>770</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="409.5">
+      <c r="E39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="409.5">
       <c r="A40" s="1" t="s">
         <v>62</v>
       </c>
@@ -1430,11 +1562,14 @@
         <v>61</v>
       </c>
       <c r="D40" s="2">
-        <f>IF(B40="",0,LEN(B40)-LEN(SUBSTITUTE(B40," ",""))+1)</f>
+        <f t="shared" si="1"/>
         <v>794</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="409.5">
+      <c r="E40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="409.5">
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
@@ -1445,11 +1580,14 @@
         <v>31</v>
       </c>
       <c r="D41" s="2">
-        <f>IF(B41="",0,LEN(B41)-LEN(SUBSTITUTE(B41," ",""))+1)</f>
+        <f t="shared" si="1"/>
         <v>797</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="409.5">
+      <c r="E41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="409.5">
       <c r="A42" s="1" t="s">
         <v>137</v>
       </c>
@@ -1460,11 +1598,14 @@
         <v>136</v>
       </c>
       <c r="D42" s="2">
-        <f>IF(B42="",0,LEN(B42)-LEN(SUBSTITUTE(B42," ",""))+1)</f>
+        <f t="shared" si="1"/>
         <v>867</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="409.5">
+      <c r="E42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="409.5">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -1475,11 +1616,14 @@
         <v>19</v>
       </c>
       <c r="D43" s="2">
-        <f>IF(B43="",0,LEN(B43)-LEN(SUBSTITUTE(B43," ",""))+1)</f>
+        <f t="shared" si="1"/>
         <v>898</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="409.5">
+      <c r="E43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="409.5">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -1490,11 +1634,14 @@
         <v>85</v>
       </c>
       <c r="D44" s="2">
-        <f>IF(B44="",0,LEN(B44)-LEN(SUBSTITUTE(B44," ",""))+1)</f>
+        <f t="shared" si="1"/>
         <v>898</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="409.5">
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="409.5">
       <c r="A45" s="1" t="s">
         <v>122</v>
       </c>
@@ -1505,11 +1652,14 @@
         <v>121</v>
       </c>
       <c r="D45" s="2">
-        <f>IF(B45="",0,LEN(B45)-LEN(SUBSTITUTE(B45," ",""))+1)</f>
+        <f t="shared" si="1"/>
         <v>918</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="409.5">
+      <c r="E45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="409.5">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
@@ -1520,11 +1670,14 @@
         <v>13</v>
       </c>
       <c r="D46" s="2">
-        <f>IF(B46="",0,LEN(B46)-LEN(SUBSTITUTE(B46," ",""))+1)</f>
+        <f t="shared" si="1"/>
         <v>973</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="409.5">
+      <c r="E46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="409.5">
       <c r="A47" s="1" t="s">
         <v>101</v>
       </c>
@@ -1535,11 +1688,14 @@
         <v>100</v>
       </c>
       <c r="D47" s="2">
-        <f>IF(B47="",0,LEN(B47)-LEN(SUBSTITUTE(B47," ",""))+1)</f>
+        <f t="shared" si="1"/>
         <v>992</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="409.5">
+      <c r="E47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="409.5">
       <c r="A48" s="1" t="s">
         <v>98</v>
       </c>
@@ -1550,11 +1706,14 @@
         <v>97</v>
       </c>
       <c r="D48" s="2">
-        <f>IF(B48="",0,LEN(B48)-LEN(SUBSTITUTE(B48," ",""))+1)</f>
+        <f t="shared" si="1"/>
         <v>995</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="409.5">
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="409.5">
       <c r="A49" s="1" t="s">
         <v>125</v>
       </c>
@@ -1565,11 +1724,14 @@
         <v>124</v>
       </c>
       <c r="D49" s="2">
-        <f>IF(B49="",0,LEN(B49)-LEN(SUBSTITUTE(B49," ",""))+1)</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="409.5">
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="409.5">
       <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
@@ -1580,11 +1742,14 @@
         <v>73</v>
       </c>
       <c r="D50" s="2">
-        <f>IF(B50="",0,LEN(B50)-LEN(SUBSTITUTE(B50," ",""))+1)</f>
+        <f t="shared" si="1"/>
         <v>1243</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="409.5">
+      <c r="E50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="409.5">
       <c r="A51" s="1" t="s">
         <v>92</v>
       </c>
@@ -1595,16 +1760,14 @@
         <v>91</v>
       </c>
       <c r="D51" s="2">
-        <f>IF(B51="",0,LEN(B51)-LEN(SUBSTITUTE(B51," ",""))+1)</f>
+        <f t="shared" si="1"/>
         <v>1665</v>
       </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D51" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">
-      <sortCondition ref="D1:D51"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
